--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N2">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P2">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q2">
-        <v>16.17900300876413</v>
+        <v>1.995406117097556</v>
       </c>
       <c r="R2">
-        <v>16.17900300876413</v>
+        <v>17.958655053878</v>
       </c>
       <c r="S2">
-        <v>0.07438614096389887</v>
+        <v>0.007941720356120339</v>
       </c>
       <c r="T2">
-        <v>0.07438614096389887</v>
+        <v>0.007941720356120339</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N3">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P3">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q3">
-        <v>87.06313705241629</v>
+        <v>10.54547755612689</v>
       </c>
       <c r="R3">
-        <v>87.06313705241629</v>
+        <v>94.90929800514201</v>
       </c>
       <c r="S3">
-        <v>0.4002898560580089</v>
+        <v>0.041971021866126</v>
       </c>
       <c r="T3">
-        <v>0.4002898560580089</v>
+        <v>0.041971021866126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N4">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P4">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q4">
-        <v>21.1959878994596</v>
+        <v>2.722468030051556</v>
       </c>
       <c r="R4">
-        <v>21.1959878994596</v>
+        <v>24.502212270464</v>
       </c>
       <c r="S4">
-        <v>0.09745271342765732</v>
+        <v>0.01083542823081875</v>
       </c>
       <c r="T4">
-        <v>0.09745271342765732</v>
+        <v>0.01083542823081875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N5">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P5">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q5">
-        <v>16.67689555689971</v>
+        <v>2.232077919713334</v>
       </c>
       <c r="R5">
-        <v>16.67689555689971</v>
+        <v>20.08870127742</v>
       </c>
       <c r="S5">
-        <v>0.0766752996500321</v>
+        <v>0.008883674606159115</v>
       </c>
       <c r="T5">
-        <v>0.0766752996500321</v>
+        <v>0.008883674606159117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N6">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P6">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q6">
-        <v>47.18788351835233</v>
+        <v>5.938611211100111</v>
       </c>
       <c r="R6">
-        <v>47.18788351835233</v>
+        <v>53.447500899901</v>
       </c>
       <c r="S6">
-        <v>0.2169555536446078</v>
+        <v>0.02363568455472085</v>
       </c>
       <c r="T6">
-        <v>0.2169555536446078</v>
+        <v>0.02363568455472086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N7">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P7">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q7">
-        <v>0.6101215887276953</v>
+        <v>16.63842584404</v>
       </c>
       <c r="R7">
-        <v>0.6101215887276953</v>
+        <v>149.74583259636</v>
       </c>
       <c r="S7">
-        <v>0.002805153721748587</v>
+        <v>0.06622096829672643</v>
       </c>
       <c r="T7">
-        <v>0.002805153721748587</v>
+        <v>0.06622096829672643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N8">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P8">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q8">
-        <v>3.283212165129261</v>
+        <v>87.93204791956002</v>
       </c>
       <c r="R8">
-        <v>3.283212165129261</v>
+        <v>791.3884312760401</v>
       </c>
       <c r="S8">
-        <v>0.0150952121584622</v>
+        <v>0.3499697274326724</v>
       </c>
       <c r="T8">
-        <v>0.0150952121584622</v>
+        <v>0.3499697274326725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N9">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P9">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q9">
-        <v>0.7993156194399611</v>
+        <v>22.70093393152001</v>
       </c>
       <c r="R9">
-        <v>0.7993156194399611</v>
+        <v>204.3084053836801</v>
       </c>
       <c r="S9">
-        <v>0.003675010401450499</v>
+        <v>0.09034976266842885</v>
       </c>
       <c r="T9">
-        <v>0.003675010401450499</v>
+        <v>0.09034976266842887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N10">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P10">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q10">
-        <v>0.6288974670880371</v>
+        <v>18.61188187560001</v>
       </c>
       <c r="R10">
-        <v>0.6288974670880371</v>
+        <v>167.5069368804</v>
       </c>
       <c r="S10">
-        <v>0.002891479506698181</v>
+        <v>0.07407532726829526</v>
       </c>
       <c r="T10">
-        <v>0.002891479506698181</v>
+        <v>0.07407532726829527</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.41694582444921</v>
+        <v>6.674904333333333</v>
       </c>
       <c r="N11">
-        <v>6.41694582444921</v>
+        <v>20.024713</v>
       </c>
       <c r="O11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="P11">
-        <v>0.2505956188417098</v>
+        <v>0.2534181472646931</v>
       </c>
       <c r="Q11">
-        <v>1.779488293890475</v>
+        <v>49.51831178918</v>
       </c>
       <c r="R11">
-        <v>1.779488293890475</v>
+        <v>445.66480610262</v>
       </c>
       <c r="S11">
-        <v>0.008181546600939544</v>
+        <v>0.197082980435515</v>
       </c>
       <c r="T11">
-        <v>0.008181546600939544</v>
+        <v>0.1970829804355151</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H12">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I12">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J12">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.20013651937711</v>
+        <v>2.242804666666667</v>
       </c>
       <c r="N12">
-        <v>2.20013651937711</v>
+        <v>6.728414</v>
       </c>
       <c r="O12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770016</v>
       </c>
       <c r="P12">
-        <v>0.08592009153464783</v>
+        <v>0.08514989502770018</v>
       </c>
       <c r="Q12">
-        <v>1.89851535047915</v>
+        <v>0.669282068994</v>
       </c>
       <c r="R12">
-        <v>1.89851535047915</v>
+        <v>6.023538620946</v>
       </c>
       <c r="S12">
-        <v>0.008728796849000377</v>
+        <v>0.002663743979620226</v>
       </c>
       <c r="T12">
-        <v>0.008728796849000377</v>
+        <v>0.002663743979620227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H13">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I13">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J13">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.8394679336417</v>
+        <v>11.85294866666667</v>
       </c>
       <c r="N13">
-        <v>11.8394679336417</v>
+        <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161076</v>
       </c>
       <c r="P13">
-        <v>0.462356839960104</v>
+        <v>0.4500067927161077</v>
       </c>
       <c r="Q13">
-        <v>10.21637130948952</v>
+        <v>3.537073970466</v>
       </c>
       <c r="R13">
-        <v>10.21637130948952</v>
+        <v>31.833665734194</v>
       </c>
       <c r="S13">
-        <v>0.04697177174363295</v>
+        <v>0.01407756151074276</v>
       </c>
       <c r="T13">
-        <v>0.04697177174363295</v>
+        <v>0.01407756151074277</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H14">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I14">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J14">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.8823819994727</v>
+        <v>3.060010666666667</v>
       </c>
       <c r="N14">
-        <v>2.8823819994727</v>
+        <v>9.180032000000001</v>
       </c>
       <c r="O14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="P14">
-        <v>0.1125632537123788</v>
+        <v>0.1161757824579356</v>
       </c>
       <c r="Q14">
-        <v>2.487230416725676</v>
+        <v>0.9131469630720001</v>
       </c>
       <c r="R14">
-        <v>2.487230416725676</v>
+        <v>8.218322667648001</v>
       </c>
       <c r="S14">
-        <v>0.01143552988327096</v>
+        <v>0.003634326748134259</v>
       </c>
       <c r="T14">
-        <v>0.01143552988327096</v>
+        <v>0.00363432674813426</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H15">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I15">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J15">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.26784350832355</v>
+        <v>2.50882</v>
       </c>
       <c r="N15">
-        <v>2.26784350832355</v>
+        <v>7.52646</v>
       </c>
       <c r="O15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356351</v>
       </c>
       <c r="P15">
-        <v>0.08856419595115946</v>
+        <v>0.09524938253356353</v>
       </c>
       <c r="Q15">
-        <v>1.956940251260276</v>
+        <v>0.74866450266</v>
       </c>
       <c r="R15">
-        <v>1.956940251260276</v>
+        <v>6.73798052394</v>
       </c>
       <c r="S15">
-        <v>0.008997416794429178</v>
+        <v>0.002979686225141979</v>
       </c>
       <c r="T15">
-        <v>0.008997416794429178</v>
+        <v>0.002979686225141981</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.674904333333333</v>
+      </c>
+      <c r="N16">
+        <v>20.024713</v>
+      </c>
+      <c r="O16">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="P16">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="Q16">
+        <v>1.991878226823</v>
+      </c>
+      <c r="R16">
+        <v>17.926904041407</v>
+      </c>
+      <c r="S16">
+        <v>0.007927679345737772</v>
+      </c>
+      <c r="T16">
+        <v>0.007927679345737775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.242804666666667</v>
+      </c>
+      <c r="N17">
+        <v>6.728414</v>
+      </c>
+      <c r="O17">
+        <v>0.08514989502770016</v>
+      </c>
+      <c r="P17">
+        <v>0.08514989502770018</v>
+      </c>
+      <c r="Q17">
+        <v>2.091321153870667</v>
+      </c>
+      <c r="R17">
+        <v>18.821890384836</v>
+      </c>
+      <c r="S17">
+        <v>0.008323462395233175</v>
+      </c>
+      <c r="T17">
+        <v>0.008323462395233176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.85294866666667</v>
+      </c>
+      <c r="N18">
+        <v>35.558846</v>
+      </c>
+      <c r="O18">
+        <v>0.4500067927161076</v>
+      </c>
+      <c r="P18">
+        <v>0.4500067927161077</v>
+      </c>
+      <c r="Q18">
+        <v>11.05237680782267</v>
+      </c>
+      <c r="R18">
+        <v>99.47139127040403</v>
+      </c>
+      <c r="S18">
+        <v>0.04398848190656633</v>
+      </c>
+      <c r="T18">
+        <v>0.04398848190656635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.41694582444921</v>
-      </c>
-      <c r="N16">
-        <v>6.41694582444921</v>
-      </c>
-      <c r="O16">
-        <v>0.2505956188417098</v>
-      </c>
-      <c r="P16">
-        <v>0.2505956188417098</v>
-      </c>
-      <c r="Q16">
-        <v>5.537233732368118</v>
-      </c>
-      <c r="R16">
-        <v>5.537233732368118</v>
-      </c>
-      <c r="S16">
-        <v>0.0254585185961625</v>
-      </c>
-      <c r="T16">
-        <v>0.0254585185961625</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.060010666666667</v>
+      </c>
+      <c r="N19">
+        <v>9.180032000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1161757824579356</v>
+      </c>
+      <c r="P19">
+        <v>0.1161757824579356</v>
+      </c>
+      <c r="Q19">
+        <v>2.853331426218667</v>
+      </c>
+      <c r="R19">
+        <v>25.679982835968</v>
+      </c>
+      <c r="S19">
+        <v>0.01135626481055375</v>
+      </c>
+      <c r="T19">
+        <v>0.01135626481055375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.50882</v>
+      </c>
+      <c r="N20">
+        <v>7.52646</v>
+      </c>
+      <c r="O20">
+        <v>0.09524938253356351</v>
+      </c>
+      <c r="P20">
+        <v>0.09524938253356353</v>
+      </c>
+      <c r="Q20">
+        <v>2.339369279560001</v>
+      </c>
+      <c r="R20">
+        <v>21.05432351604</v>
+      </c>
+      <c r="S20">
+        <v>0.009310694433967155</v>
+      </c>
+      <c r="T20">
+        <v>0.009310694433967157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.674904333333333</v>
+      </c>
+      <c r="N21">
+        <v>20.024713</v>
+      </c>
+      <c r="O21">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="P21">
+        <v>0.2534181472646931</v>
+      </c>
+      <c r="Q21">
+        <v>6.224067944851334</v>
+      </c>
+      <c r="R21">
+        <v>56.01661150366201</v>
+      </c>
+      <c r="S21">
+        <v>0.02477180292871944</v>
+      </c>
+      <c r="T21">
+        <v>0.02477180292871944</v>
       </c>
     </row>
   </sheetData>
